--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -643,19 +643,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,7 +664,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,7 +788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -811,6 +811,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1159,11 +1160,14 @@
   <sheetPr/>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="48.9134615384615" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1987,7 +1991,7 @@
         <v>0.8013</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="8:13">
+    <row r="25" ht="17.55" spans="8:13">
       <c r="H25">
         <v>0.75</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>0.8253</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:13">
+    <row r="26" ht="18.35" spans="1:13">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2030,7 +2034,7 @@
         <v>0.807</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:13">
+    <row r="27" ht="18.35" spans="1:13">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2049,7 +2053,9 @@
       <c r="F27" s="2">
         <v>0.5592</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="8">
+        <v>0.586049675838814</v>
+      </c>
       <c r="H27">
         <v>1.25</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>0.7935</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:13">
+    <row r="28" ht="18.35" spans="1:13">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2088,6 +2094,9 @@
       <c r="F28" s="3">
         <v>0.8494</v>
       </c>
+      <c r="G28" s="8">
+        <v>0.864779144426394</v>
+      </c>
       <c r="H28">
         <v>1.5</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>0.7674</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:6">
+    <row r="29" ht="18.35" spans="1:7">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2126,8 +2135,11 @@
       <c r="F29" s="4">
         <v>0.4837</v>
       </c>
-    </row>
-    <row r="30" ht="16.5" spans="1:13">
+      <c r="G29" s="8">
+        <v>0.494369185658857</v>
+      </c>
+    </row>
+    <row r="30" ht="18.35" spans="1:13">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2146,6 +2158,9 @@
       <c r="F30" s="5">
         <v>0.807</v>
       </c>
+      <c r="G30" s="8">
+        <v>0.81423593827775</v>
+      </c>
       <c r="H30" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:13">
+    <row r="31" ht="18.35" spans="1:13">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2184,6 +2199,9 @@
       <c r="F31" s="3">
         <v>0.8383</v>
       </c>
+      <c r="G31" s="8">
+        <v>0.834972677595628</v>
+      </c>
       <c r="H31">
         <v>0.5</v>
       </c>
@@ -2203,7 +2221,7 @@
         <v>0.8077</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:13">
+    <row r="32" ht="18.35" spans="1:13">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2222,6 +2240,9 @@
       <c r="F32" s="5">
         <v>0.8097</v>
       </c>
+      <c r="G32" s="8">
+        <v>0.840111171031866</v>
+      </c>
       <c r="H32">
         <v>0.75</v>
       </c>
@@ -2241,7 +2262,7 @@
         <v>0.8317</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:13">
+    <row r="33" ht="18.35" spans="1:13">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2260,6 +2281,9 @@
       <c r="F33" s="2">
         <v>0.5205</v>
       </c>
+      <c r="G33" s="8">
+        <v>0.557509157509157</v>
+      </c>
       <c r="H33">
         <v>1</v>
       </c>
@@ -2279,7 +2303,7 @@
         <v>0.8383</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:13">
+    <row r="34" ht="18.35" spans="1:13">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2298,6 +2322,9 @@
       <c r="F34" s="5">
         <v>0.4187</v>
       </c>
+      <c r="G34" s="8">
+        <v>0.510511189074548</v>
+      </c>
       <c r="H34">
         <v>1.25</v>
       </c>
@@ -2317,7 +2344,7 @@
         <v>0.8295</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:13">
+    <row r="35" ht="18.35" spans="1:13">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2336,6 +2363,9 @@
       <c r="F35" s="5">
         <v>0.8423</v>
       </c>
+      <c r="G35" s="8">
+        <v>0.877665995975855</v>
+      </c>
       <c r="H35">
         <v>1.5</v>
       </c>
@@ -2355,7 +2385,7 @@
         <v>0.8262</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:6">
+    <row r="36" ht="18.35" spans="1:7">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2374,8 +2404,11 @@
       <c r="F36" s="2">
         <v>0.3465</v>
       </c>
-    </row>
-    <row r="37" ht="18" spans="2:13">
+      <c r="G36" s="8">
+        <v>0.436686302203544</v>
+      </c>
+    </row>
+    <row r="37" ht="20.4" spans="2:13">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2901,7 +2934,7 @@
         <v>0.3948</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:13">
+    <row r="53" ht="17.55" spans="1:13">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2939,7 +2972,7 @@
         <v>0.4716</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:13">
+    <row r="54" ht="18.35" spans="1:13">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3149,7 +3182,7 @@
         <v>0.8857</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:13">
+    <row r="60" ht="17.55" spans="1:13">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3187,7 +3220,7 @@
         <v>0.9058</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="8:13">
+    <row r="61" ht="18.35" spans="8:13">
       <c r="H61">
         <v>1</v>
       </c>
@@ -3287,7 +3320,7 @@
         <v>0.3915</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="8:13">
+    <row r="67" ht="17.55" spans="8:13">
       <c r="H67">
         <v>0.75</v>
       </c>
@@ -3307,7 +3340,7 @@
         <v>0.4247</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="8:13">
+    <row r="68" ht="18.35" spans="8:13">
       <c r="H68">
         <v>1</v>
       </c>

--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,6 +128,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
@@ -139,13 +146,6 @@
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -799,19 +799,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1160,13 +1160,13 @@
   <sheetPr/>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="48.9134615384615" customWidth="1"/>
+    <col min="1" max="1" width="48.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1991,7 +1991,7 @@
         <v>0.8013</v>
       </c>
     </row>
-    <row r="25" ht="17.55" spans="8:13">
+    <row r="25" ht="14.25" spans="8:13">
       <c r="H25">
         <v>0.75</v>
       </c>
@@ -2011,30 +2011,30 @@
         <v>0.8253</v>
       </c>
     </row>
-    <row r="26" ht="18.35" spans="1:13">
+    <row r="26" ht="16.5" spans="1:13">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="5">
         <v>0.7066</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="5">
         <v>0.6664</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="5">
         <v>0.4882</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="5">
         <v>0.6865</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>0.807</v>
       </c>
     </row>
-    <row r="27" ht="18.35" spans="1:13">
+    <row r="27" ht="16.5" spans="1:13">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="F27" s="2">
         <v>0.5592</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="4">
         <v>0.586049675838814</v>
       </c>
       <c r="H27">
@@ -2075,7 +2075,7 @@
         <v>0.7935</v>
       </c>
     </row>
-    <row r="28" ht="18.35" spans="1:13">
+    <row r="28" ht="16.5" spans="1:13">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="F28" s="3">
         <v>0.8494</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="4">
         <v>0.864779144426394</v>
       </c>
       <c r="H28">
@@ -2116,49 +2116,49 @@
         <v>0.7674</v>
       </c>
     </row>
-    <row r="29" ht="18.35" spans="1:7">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>0.4403</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>0.4359</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
         <v>0.512</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>0.0307</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>0.4837</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="4">
         <v>0.494369185658857</v>
       </c>
     </row>
-    <row r="30" ht="18.35" spans="1:13">
+    <row r="30" ht="16.5" spans="1:13">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>0.7066</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>0.6664</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>0.4882</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>0.6865</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="6">
         <v>0.807</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="4">
         <v>0.81423593827775</v>
       </c>
       <c r="H30" t="s">
@@ -2180,7 +2180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="18.35" spans="1:13">
+    <row r="31" ht="16.5" spans="1:13">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="F31" s="3">
         <v>0.8383</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="4">
         <v>0.834972677595628</v>
       </c>
       <c r="H31">
@@ -2221,26 +2221,26 @@
         <v>0.8077</v>
       </c>
     </row>
-    <row r="32" ht="18.35" spans="1:13">
+    <row r="32" ht="16.5" spans="1:13">
       <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>0.7013</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>0.6942</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>0.6653</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>0.421</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="6">
         <v>0.8097</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="4">
         <v>0.840111171031866</v>
       </c>
       <c r="H32">
@@ -2262,7 +2262,7 @@
         <v>0.8317</v>
       </c>
     </row>
-    <row r="33" ht="18.35" spans="1:13">
+    <row r="33" ht="16.5" spans="1:13">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="F33" s="2">
         <v>0.5205</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="4">
         <v>0.557509157509157</v>
       </c>
       <c r="H33">
@@ -2303,26 +2303,26 @@
         <v>0.8383</v>
       </c>
     </row>
-    <row r="34" ht="18.35" spans="1:13">
+    <row r="34" ht="16.5" spans="1:13">
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>0.3666</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>0.374</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>0.2722</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>0.2594</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="6">
         <v>0.4187</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="4">
         <v>0.510511189074548</v>
       </c>
       <c r="H34">
@@ -2344,26 +2344,26 @@
         <v>0.8295</v>
       </c>
     </row>
-    <row r="35" ht="18.35" spans="1:13">
+    <row r="35" ht="16.5" spans="1:13">
       <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>0.7528</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>0.6901</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <v>0.4535</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>0.5662</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="6">
         <v>0.8423</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="4">
         <v>0.877665995975855</v>
       </c>
       <c r="H35">
@@ -2385,7 +2385,7 @@
         <v>0.8262</v>
       </c>
     </row>
-    <row r="36" ht="18.35" spans="1:7">
+    <row r="36" ht="16.5" spans="1:7">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2404,16 +2404,16 @@
       <c r="F36" s="2">
         <v>0.3465</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="4">
         <v>0.436686302203544</v>
       </c>
     </row>
-    <row r="37" ht="20.4" spans="2:13">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+    <row r="37" ht="18" spans="2:13">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
       <c r="H37" t="s">
         <v>13</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>0.3948</v>
       </c>
     </row>
-    <row r="53" ht="17.55" spans="1:13">
+    <row r="53" ht="14.25" spans="1:13">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0.4716</v>
       </c>
     </row>
-    <row r="54" ht="18.35" spans="1:13">
+    <row r="54" ht="16.5" spans="1:13">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2994,19 +2994,19 @@
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="5">
         <v>0.3666</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="5">
         <v>0.374</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="5">
         <v>0.2722</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="5">
         <v>0.2594</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>0.4187</v>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
         <v>0.8857</v>
       </c>
     </row>
-    <row r="60" ht="17.55" spans="1:13">
+    <row r="60" ht="14.25" spans="1:13">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3220,23 +3220,23 @@
         <v>0.9058</v>
       </c>
     </row>
-    <row r="61" ht="18.35" spans="8:13">
+    <row r="61" ht="16.5" spans="8:13">
       <c r="H61">
         <v>1</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="5">
         <v>0.7528</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="5">
         <v>0.6901</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="5">
         <v>0.4535</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="5">
         <v>0.5662</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>0.8423</v>
       </c>
     </row>
@@ -3320,7 +3320,7 @@
         <v>0.3915</v>
       </c>
     </row>
-    <row r="67" ht="17.55" spans="8:13">
+    <row r="67" ht="14.25" spans="8:13">
       <c r="H67">
         <v>0.75</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0.4247</v>
       </c>
     </row>
-    <row r="68" ht="18.35" spans="8:13">
+    <row r="68" ht="16.5" spans="8:13">
       <c r="H68">
         <v>1</v>
       </c>

--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="21">
   <si>
     <t>Key</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>pre</t>
+  </si>
+  <si>
+    <t>Active Learning</t>
   </si>
   <si>
     <t xml:space="preserve">0.5 </t>
@@ -93,11 +96,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -799,7 +803,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1158,18 +1162,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="48.9166666666667" customWidth="1"/>
+    <col min="7" max="7" width="19.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,48 +1193,51 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.5051</v>
@@ -1246,28 +1254,28 @@
       <c r="F3">
         <v>0.5609</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.5051</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.5601</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.6076</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.224</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.5609</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.7053</v>
@@ -1284,28 +1292,28 @@
       <c r="F4">
         <v>0.8416</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.75</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.4935</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.5473</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.59</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.2218</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.582</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.44</v>
@@ -1322,28 +1330,28 @@
       <c r="F5">
         <v>0.4393</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.509</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.552</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.5703</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.2147</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.5592</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.8037</v>
@@ -1360,28 +1368,28 @@
       <c r="F6">
         <v>0.8013</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.25</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.4846</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.5399</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.541</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.2061</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.5837</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0.7038</v>
@@ -1398,28 +1406,28 @@
       <c r="F7">
         <v>0.8077</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.4763</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.5347</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.5188</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.1992</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.5731</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0.7137</v>
@@ -1437,9 +1445,9 @@
         <v>0.809</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0.5095</v>
@@ -1456,28 +1464,28 @@
       <c r="F9">
         <v>0.5615</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0.3115</v>
@@ -1494,28 +1502,28 @@
       <c r="F10">
         <v>0.3948</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.5</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.7053</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.6803</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.4777</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.5764</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.8416</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0.8986</v>
@@ -1532,28 +1540,28 @@
       <c r="F11">
         <v>0.8857</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.75</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.6561</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.6519</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.4883</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.6083</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.8736</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0.6115</v>
@@ -1570,86 +1578,86 @@
       <c r="F12">
         <v>0.3915</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.6245</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.6366</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.4896</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.6201</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.8494</v>
       </c>
     </row>
-    <row r="13" spans="8:13">
-      <c r="H13">
+    <row r="13" spans="9:14">
+      <c r="I13">
         <v>1.25</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.6111</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.6271</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.4858</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.6309</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.8507</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
         <v>1.5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.5876</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.612</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.4834</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.642</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.8337</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>0.4935</v>
@@ -1667,9 +1675,9 @@
         <v>0.582</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>0.6561</v>
@@ -1686,28 +1694,28 @@
       <c r="F16">
         <v>0.8736</v>
       </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>0.4385</v>
@@ -1724,28 +1732,28 @@
       <c r="F17">
         <v>0.4712</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.5</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.44</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.5645</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.54</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-0.0047</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.4393</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>0.7563</v>
@@ -1762,28 +1770,28 @@
       <c r="F18">
         <v>0.8253</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.75</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.4385</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.5588</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.5392</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.0035</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.4712</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>0.7344</v>
@@ -1800,28 +1808,28 @@
       <c r="F19">
         <v>0.8317</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.4403</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.4359</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.512</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.0307</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.4837</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>0.7125</v>
@@ -1838,28 +1846,28 @@
       <c r="F20">
         <v>0.8352</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.25</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.4306</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.544</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.5243</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.0153</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.5121</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>0.6205</v>
@@ -1876,28 +1884,28 @@
       <c r="F21">
         <v>0.6286</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.4301</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.538</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.5082</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.0185</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.5174</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>0.3281</v>
@@ -1915,9 +1923,9 @@
         <v>0.4716</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>0.901</v>
@@ -1934,28 +1942,28 @@
       <c r="F23">
         <v>0.9058</v>
       </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>0.5828</v>
@@ -1972,71 +1980,71 @@
       <c r="F24">
         <v>0.4247</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.5</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.8037</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.6659</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.4691</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.682</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.8013</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="8:13">
-      <c r="H25">
+    <row r="25" ht="14.25" spans="9:14">
+      <c r="I25">
         <v>0.75</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.7563</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.6688</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.4779</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.6968</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.8253</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:13">
+    <row r="26" ht="16.5" spans="1:14">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>0.7066</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>0.6664</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>0.4882</v>
       </c>
-      <c r="L26" s="5">
+      <c r="M26" s="5">
         <v>0.6865</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <v>0.807</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:13">
+    <row r="27" ht="16.5" spans="1:14">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2">
         <v>0.509</v>
@@ -2056,28 +2064,28 @@
       <c r="G27" s="4">
         <v>0.586049675838814</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.25</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.6608</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.6504</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.4993</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.6743</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.7935</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:13">
+    <row r="28" ht="16.5" spans="1:14">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2">
         <v>0.6245</v>
@@ -2097,28 +2105,28 @@
       <c r="G28" s="4">
         <v>0.864779144426394</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.5</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.6242</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.6352</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.5088</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.6603</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.7674</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:7">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5">
         <v>0.4403</v>
@@ -2139,9 +2147,9 @@
         <v>0.494369185658857</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:13">
+    <row r="30" ht="16.5" spans="1:14">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="5">
         <v>0.7066</v>
@@ -2161,28 +2169,28 @@
       <c r="G30" s="4">
         <v>0.81423593827775</v>
       </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:13">
+    <row r="31" ht="16.5" spans="1:14">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" s="2">
         <v>0.7475</v>
@@ -2202,28 +2210,28 @@
       <c r="G31" s="4">
         <v>0.834972677595628</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.5</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.7038</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.6973</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.6951</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.6098</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.8077</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:13">
+    <row r="32" ht="16.5" spans="1:14">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" s="5">
         <v>0.7013</v>
@@ -2243,28 +2251,28 @@
       <c r="G32" s="4">
         <v>0.840111171031866</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.75</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.7344</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.7126</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.647</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.6208</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.8317</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:13">
+    <row r="33" ht="16.5" spans="1:14">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3">
         <v>0.5344</v>
@@ -2284,28 +2292,28 @@
       <c r="G33" s="4">
         <v>0.557509157509157</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.7475</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.7148</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.6339</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.6251</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.8383</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:13">
+    <row r="34" ht="16.5" spans="1:14">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="5">
         <v>0.3666</v>
@@ -2325,28 +2333,28 @@
       <c r="G34" s="4">
         <v>0.510511189074548</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1.25</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.7432</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.706</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.6077</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.6404</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.8295</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:13">
+    <row r="35" ht="16.5" spans="1:14">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="5">
         <v>0.7528</v>
@@ -2366,28 +2374,28 @@
       <c r="G35" s="4">
         <v>0.877665995975855</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1.5</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.7574</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.7071</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.576</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.6656</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.8262</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:7">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3">
         <v>0.614</v>
@@ -2408,57 +2416,57 @@
         <v>0.436686302203544</v>
       </c>
     </row>
-    <row r="37" ht="18" spans="2:13">
+    <row r="37" ht="18" spans="2:14">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>1.25</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.5</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.7137</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.6955</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.7213</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.4389</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.809</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0.4846</v>
@@ -2475,28 +2483,28 @@
       <c r="F39">
         <v>0.5837</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.75</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.7125</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.6994</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.6978</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0.4317</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.8352</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0.6111</v>
@@ -2513,28 +2521,28 @@
       <c r="F40">
         <v>0.8507</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>1</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.7013</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>0.6942</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>0.6653</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>0.421</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>0.8097</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0.4306</v>
@@ -2551,28 +2559,28 @@
       <c r="F41">
         <v>0.5121</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>1.25</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.695</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>0.7066</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>0.6476</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0.4145</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.8303</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0.6608</v>
@@ -2589,28 +2597,28 @@
       <c r="F42">
         <v>0.7935</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>1.5</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.6764</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>0.7043</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>0.6192</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0.4006</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.8073</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0.7432</v>
@@ -2628,9 +2636,9 @@
         <v>0.8295</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>0.695</v>
@@ -2647,28 +2655,28 @@
       <c r="F44">
         <v>0.8303</v>
       </c>
-      <c r="H44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0.5978</v>
@@ -2685,28 +2693,28 @@
       <c r="F45">
         <v>0.6571</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.5</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.5095</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.4758</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.456</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0.4454</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.5615</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0.3046</v>
@@ -2723,28 +2731,28 @@
       <c r="F46">
         <v>0.5229</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.75</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.6205</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.548</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>0.5575</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0.5176</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.6286</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>0.8342</v>
@@ -2761,28 +2769,28 @@
       <c r="F47">
         <v>0.8471</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.5344</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.4648</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>0.5081</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0.4344</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.5205</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <v>0.5457</v>
@@ -2799,68 +2807,68 @@
       <c r="F48">
         <v>0.4573</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1.25</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.5978</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0.4945</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>0.5604</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>0.4641</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>0.6571</v>
       </c>
     </row>
-    <row r="49" spans="8:13">
-      <c r="H49">
+    <row r="49" spans="9:14">
+      <c r="I49">
         <v>1.5</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0.6</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.4938</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>0.5297</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>0.4634</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.6462</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>0.4763</v>
@@ -2877,28 +2885,28 @@
       <c r="F51">
         <v>0.5731</v>
       </c>
-      <c r="H51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52">
         <v>0.5876</v>
@@ -2915,28 +2923,28 @@
       <c r="F52">
         <v>0.8337</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0.5</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0.3115</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>0.3225</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>0.2535</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>0.2466</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>0.3948</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:13">
+    <row r="53" ht="14.25" spans="1:14">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>0.4301</v>
@@ -2953,28 +2961,28 @@
       <c r="F53">
         <v>0.5174</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>0.75</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>0.3281</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>0.3416</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>0.2375</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>0.2741</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>0.4716</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:13">
+    <row r="54" ht="16.5" spans="1:14">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>0.6242</v>
@@ -2991,28 +2999,28 @@
       <c r="F54">
         <v>0.7674</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54" s="5">
+      <c r="J54" s="5">
         <v>0.3666</v>
       </c>
-      <c r="J54" s="5">
+      <c r="K54" s="5">
         <v>0.374</v>
       </c>
-      <c r="K54" s="5">
+      <c r="L54" s="5">
         <v>0.2722</v>
       </c>
-      <c r="L54" s="5">
+      <c r="M54" s="5">
         <v>0.2594</v>
       </c>
-      <c r="M54" s="6">
+      <c r="N54" s="6">
         <v>0.4187</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>0.7574</v>
@@ -3029,28 +3037,28 @@
       <c r="F55">
         <v>0.8262</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>1.25</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.3046</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>0.3164</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>0.21</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>0.2733</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>0.5229</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>0.6764</v>
@@ -3067,28 +3075,28 @@
       <c r="F56">
         <v>0.8073</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>1.5</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0.3225</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>0.3321</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>0.2165</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>0.2773</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>0.5546</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>0.6</v>
@@ -3106,9 +3114,9 @@
         <v>0.6462</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58">
         <v>0.3225</v>
@@ -3125,28 +3133,28 @@
       <c r="F58">
         <v>0.5546</v>
       </c>
-      <c r="H58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B59">
         <v>0.8173</v>
@@ -3163,28 +3171,28 @@
       <c r="F59">
         <v>0.8254</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0.5</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>0.8986</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>0.7336</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>0.4584</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>0.5871</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>0.8857</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:13">
+    <row r="60" ht="14.25" spans="1:14">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B60">
         <v>0.5313</v>
@@ -3201,202 +3209,202 @@
       <c r="F60">
         <v>0.4641</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>0.75</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0.901</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>0.7231</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>0.4624</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>0.5992</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>0.9058</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="8:13">
-      <c r="H61">
+    <row r="61" ht="16.5" spans="9:14">
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="I61" s="5">
+      <c r="J61" s="5">
         <v>0.7528</v>
       </c>
-      <c r="J61" s="5">
+      <c r="K61" s="5">
         <v>0.6901</v>
       </c>
-      <c r="K61" s="5">
+      <c r="L61" s="5">
         <v>0.4535</v>
       </c>
-      <c r="L61" s="5">
+      <c r="M61" s="5">
         <v>0.5662</v>
       </c>
-      <c r="M61" s="6">
+      <c r="N61" s="6">
         <v>0.8423</v>
       </c>
     </row>
-    <row r="62" spans="8:13">
-      <c r="H62">
+    <row r="62" spans="9:14">
+      <c r="I62">
         <v>1.25</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0.8342</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>0.7095</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>0.4712</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>0.5887</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>0.8471</v>
       </c>
     </row>
-    <row r="63" spans="8:13">
-      <c r="H63">
+    <row r="63" spans="9:14">
+      <c r="I63">
         <v>1.5</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>0.8173</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>0.6942</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>0.4608</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>0.5992</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>0.8254</v>
       </c>
     </row>
-    <row r="65" spans="8:13">
-      <c r="H65" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="1" t="s">
+    <row r="65" spans="9:14">
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="8:13">
-      <c r="H66">
+    <row r="66" spans="9:14">
+      <c r="I66">
         <v>0.5</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0.6115</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>0.4195</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>0.6195</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>-0.0558</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>0.3915</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="8:13">
-      <c r="H67">
+    <row r="67" ht="14.25" spans="9:14">
+      <c r="I67">
         <v>0.75</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0.5828</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>0.3917</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>0.5865</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>-0.0561</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>0.4247</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="8:13">
-      <c r="H68">
+    <row r="68" ht="16.5" spans="9:14">
+      <c r="I68">
         <v>1</v>
       </c>
-      <c r="I68" s="3">
+      <c r="J68" s="3">
         <v>0.614</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <v>0.4297</v>
       </c>
-      <c r="K68" s="2">
+      <c r="L68" s="2">
         <v>0.6067</v>
       </c>
-      <c r="L68" s="2">
+      <c r="M68" s="2">
         <v>0.0442</v>
       </c>
-      <c r="M68" s="2">
+      <c r="N68" s="2">
         <v>0.3465</v>
       </c>
     </row>
-    <row r="69" spans="8:13">
-      <c r="H69">
+    <row r="69" spans="9:14">
+      <c r="I69">
         <v>1.25</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0.5457</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0.3562</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>0.5428</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>-0.072</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>0.4573</v>
       </c>
     </row>
-    <row r="70" spans="8:13">
-      <c r="H70">
+    <row r="70" spans="9:14">
+      <c r="I70">
         <v>1.5</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0.5313</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>0.3428</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>0.5275</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>-0.0703</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>0.4641</v>
       </c>
     </row>

--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$70</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>Key</t>
   </si>
@@ -103,7 +106,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +117,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -662,158 +672,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1162,15 +1174,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="48.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.375"/>
     <col min="7" max="7" width="19.375"/>
   </cols>
   <sheetData>
@@ -1216,26 +1229,13 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1254,26 +1254,11 @@
       <c r="F3">
         <v>0.5609</v>
       </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
-        <v>0.5051</v>
-      </c>
-      <c r="K3">
-        <v>0.5601</v>
-      </c>
-      <c r="L3">
-        <v>0.6076</v>
-      </c>
-      <c r="M3">
-        <v>0.224</v>
-      </c>
-      <c r="N3">
-        <v>0.5609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="G3" s="2">
+        <v>0.731230695771309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1292,26 +1277,11 @@
       <c r="F4">
         <v>0.8416</v>
       </c>
-      <c r="I4">
-        <v>0.75</v>
-      </c>
-      <c r="J4">
-        <v>0.4935</v>
-      </c>
-      <c r="K4">
-        <v>0.5473</v>
-      </c>
-      <c r="L4">
-        <v>0.59</v>
-      </c>
-      <c r="M4">
-        <v>0.2218</v>
-      </c>
-      <c r="N4">
-        <v>0.582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="G4" s="2">
+        <v>0.813155926871406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1330,26 +1300,11 @@
       <c r="F5">
         <v>0.4393</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.509</v>
-      </c>
-      <c r="K5">
-        <v>0.552</v>
-      </c>
-      <c r="L5">
-        <v>0.5703</v>
-      </c>
-      <c r="M5">
-        <v>0.2147</v>
-      </c>
-      <c r="N5">
-        <v>0.5592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="G5" s="2">
+        <v>0.658628382208001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1368,26 +1323,11 @@
       <c r="F6">
         <v>0.8013</v>
       </c>
-      <c r="I6">
-        <v>1.25</v>
-      </c>
-      <c r="J6">
-        <v>0.4846</v>
-      </c>
-      <c r="K6">
-        <v>0.5399</v>
-      </c>
-      <c r="L6">
-        <v>0.541</v>
-      </c>
-      <c r="M6">
-        <v>0.2061</v>
-      </c>
-      <c r="N6">
-        <v>0.5837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="G6" s="2">
+        <v>0.786029533764725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1406,26 +1346,11 @@
       <c r="F7">
         <v>0.8077</v>
       </c>
-      <c r="I7">
-        <v>1.5</v>
-      </c>
-      <c r="J7">
-        <v>0.4763</v>
-      </c>
-      <c r="K7">
-        <v>0.5347</v>
-      </c>
-      <c r="L7">
-        <v>0.5188</v>
-      </c>
-      <c r="M7">
-        <v>0.1992</v>
-      </c>
-      <c r="N7">
-        <v>0.5731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2">
+        <v>0.824043715846995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1443,6 +1368,9 @@
       </c>
       <c r="F8">
         <v>0.809</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.757482652496717</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1464,26 +1392,16 @@
       <c r="F9">
         <v>0.5615</v>
       </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="G9" s="2">
+        <v>0.541025641025641</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1502,26 +1420,11 @@
       <c r="F10">
         <v>0.3948</v>
       </c>
-      <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10">
-        <v>0.7053</v>
-      </c>
-      <c r="K10">
-        <v>0.6803</v>
-      </c>
-      <c r="L10">
-        <v>0.4777</v>
-      </c>
-      <c r="M10">
-        <v>0.5764</v>
-      </c>
-      <c r="N10">
-        <v>0.8416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="G10" s="2">
+        <v>0.336445263721235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1540,26 +1443,11 @@
       <c r="F11">
         <v>0.8857</v>
       </c>
-      <c r="I11">
-        <v>0.75</v>
-      </c>
-      <c r="J11">
-        <v>0.6561</v>
-      </c>
-      <c r="K11">
-        <v>0.6519</v>
-      </c>
-      <c r="L11">
-        <v>0.4883</v>
-      </c>
-      <c r="M11">
-        <v>0.6083</v>
-      </c>
-      <c r="N11">
-        <v>0.8736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="G11" s="3">
+        <v>0.885714285714285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1578,46 +1466,11 @@
       <c r="F12">
         <v>0.3915</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.6245</v>
-      </c>
-      <c r="K12">
-        <v>0.6366</v>
-      </c>
-      <c r="L12">
-        <v>0.4896</v>
-      </c>
-      <c r="M12">
-        <v>0.6201</v>
-      </c>
-      <c r="N12">
-        <v>0.8494</v>
-      </c>
-    </row>
-    <row r="13" spans="9:14">
-      <c r="I13">
-        <v>1.25</v>
-      </c>
-      <c r="J13">
-        <v>0.6111</v>
-      </c>
-      <c r="K13">
-        <v>0.6271</v>
-      </c>
-      <c r="L13">
-        <v>0.4858</v>
-      </c>
-      <c r="M13">
-        <v>0.6309</v>
-      </c>
-      <c r="N13">
-        <v>0.8507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="G12" s="2">
+        <v>0.592017178224075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1636,26 +1489,8 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="I14">
-        <v>1.5</v>
-      </c>
-      <c r="J14">
-        <v>0.5876</v>
-      </c>
-      <c r="K14">
-        <v>0.612</v>
-      </c>
-      <c r="L14">
-        <v>0.4834</v>
-      </c>
-      <c r="M14">
-        <v>0.642</v>
-      </c>
-      <c r="N14">
-        <v>0.8337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1673,6 +1508,9 @@
       </c>
       <c r="F15">
         <v>0.582</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.761582824609728</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1694,26 +1532,16 @@
       <c r="F16">
         <v>0.8736</v>
       </c>
-      <c r="I16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="G16" s="2">
+        <v>0.86333513834094</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1732,26 +1560,11 @@
       <c r="F17">
         <v>0.4712</v>
       </c>
-      <c r="I17">
-        <v>0.5</v>
-      </c>
-      <c r="J17">
-        <v>0.44</v>
-      </c>
-      <c r="K17">
-        <v>0.5645</v>
-      </c>
-      <c r="L17">
-        <v>0.54</v>
-      </c>
-      <c r="M17">
-        <v>-0.0047</v>
-      </c>
-      <c r="N17">
-        <v>0.4393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="G17" s="2">
+        <v>0.698914866830972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1770,26 +1583,11 @@
       <c r="F18">
         <v>0.8253</v>
       </c>
-      <c r="I18">
-        <v>0.75</v>
-      </c>
-      <c r="J18">
-        <v>0.4385</v>
-      </c>
-      <c r="K18">
-        <v>0.5588</v>
-      </c>
-      <c r="L18">
-        <v>0.5392</v>
-      </c>
-      <c r="M18">
-        <v>0.0035</v>
-      </c>
-      <c r="N18">
-        <v>0.4712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="G18" s="2">
+        <v>0.852994856479177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1808,26 +1606,11 @@
       <c r="F19">
         <v>0.8317</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0.4403</v>
-      </c>
-      <c r="K19">
-        <v>0.4359</v>
-      </c>
-      <c r="L19">
-        <v>0.512</v>
-      </c>
-      <c r="M19">
-        <v>0.0307</v>
-      </c>
-      <c r="N19">
-        <v>0.4837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="G19" s="2">
+        <v>0.876502732240437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1846,26 +1629,11 @@
       <c r="F20">
         <v>0.8352</v>
       </c>
-      <c r="I20">
-        <v>1.25</v>
-      </c>
-      <c r="J20">
-        <v>0.4306</v>
-      </c>
-      <c r="K20">
-        <v>0.544</v>
-      </c>
-      <c r="L20">
-        <v>0.5243</v>
-      </c>
-      <c r="M20">
-        <v>0.0153</v>
-      </c>
-      <c r="N20">
-        <v>0.5121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="G20" s="2">
+        <v>0.806423099910623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1884,26 +1652,11 @@
       <c r="F21">
         <v>0.6286</v>
       </c>
-      <c r="I21">
-        <v>1.5</v>
-      </c>
-      <c r="J21">
-        <v>0.4301</v>
-      </c>
-      <c r="K21">
-        <v>0.538</v>
-      </c>
-      <c r="L21">
-        <v>0.5082</v>
-      </c>
-      <c r="M21">
-        <v>0.0185</v>
-      </c>
-      <c r="N21">
-        <v>0.5174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2">
+        <v>0.661538461538461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1921,6 +1674,9 @@
       </c>
       <c r="F22">
         <v>0.4716</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.444637370914353</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1942,26 +1698,16 @@
       <c r="F23">
         <v>0.9058</v>
       </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="G23" s="2">
+        <v>0.9082</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1980,491 +1726,274 @@
       <c r="F24">
         <v>0.4247</v>
       </c>
-      <c r="I24">
-        <v>0.5</v>
-      </c>
-      <c r="J24">
-        <v>0.8037</v>
-      </c>
-      <c r="K24">
-        <v>0.6659</v>
-      </c>
-      <c r="L24">
-        <v>0.4691</v>
-      </c>
-      <c r="M24">
-        <v>0.682</v>
-      </c>
-      <c r="N24">
-        <v>0.8013</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="9:14">
-      <c r="I25">
-        <v>0.75</v>
-      </c>
-      <c r="J25">
-        <v>0.7563</v>
-      </c>
-      <c r="K25">
-        <v>0.6688</v>
-      </c>
-      <c r="L25">
-        <v>0.4779</v>
-      </c>
-      <c r="M25">
-        <v>0.6968</v>
-      </c>
-      <c r="N25">
-        <v>0.8253</v>
-      </c>
-    </row>
+      <c r="G24" s="2">
+        <v>0.626324824600687</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25"/>
     <row r="26" ht="16.5" spans="1:14">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0.7066</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0.6664</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0.4882</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0.6865</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0.807</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:14">
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>0.509</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>0.552</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>0.5703</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>0.2147</v>
       </c>
-      <c r="F27" s="2">
-        <v>0.5592</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="6">
         <v>0.586049675838814</v>
       </c>
-      <c r="I27">
-        <v>1.25</v>
-      </c>
-      <c r="J27">
-        <v>0.6608</v>
-      </c>
-      <c r="K27">
-        <v>0.6504</v>
-      </c>
-      <c r="L27">
-        <v>0.4993</v>
-      </c>
-      <c r="M27">
-        <v>0.6743</v>
-      </c>
-      <c r="N27">
-        <v>0.7935</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="1:14">
+      <c r="G27">
+        <v>0.8091</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:7">
       <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>0.6245</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>0.6366</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>0.4896</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>0.6201</v>
       </c>
-      <c r="F28" s="3">
-        <v>0.8494</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="6">
         <v>0.864779144426394</v>
       </c>
-      <c r="I28">
-        <v>1.5</v>
-      </c>
-      <c r="J28">
-        <v>0.6242</v>
-      </c>
-      <c r="K28">
-        <v>0.6352</v>
-      </c>
-      <c r="L28">
-        <v>0.5088</v>
-      </c>
-      <c r="M28">
-        <v>0.6603</v>
-      </c>
-      <c r="N28">
-        <v>0.7674</v>
+      <c r="G28">
+        <v>0.867</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:7">
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="7">
         <v>0.4403</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="7">
         <v>0.4359</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="8">
         <v>0.512</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="7">
         <v>0.0307</v>
       </c>
-      <c r="F29" s="5">
-        <v>0.4837</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="6">
         <v>0.494369185658857</v>
       </c>
-    </row>
-    <row r="30" ht="16.5" spans="1:14">
+      <c r="G29">
+        <v>0.7206</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:14">
       <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="7">
         <v>0.7066</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="7">
         <v>0.6664</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="7">
         <v>0.4882</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="7">
         <v>0.6865</v>
       </c>
       <c r="F30" s="6">
-        <v>0.807</v>
-      </c>
-      <c r="G30" s="4">
         <v>0.81423593827775</v>
       </c>
-      <c r="I30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="1:14">
+      <c r="G30">
+        <v>0.819</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" ht="15.75" spans="1:7">
       <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>0.7475</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>0.7148</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>0.6339</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <v>0.6251</v>
       </c>
-      <c r="F31" s="3">
-        <v>0.8383</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="6">
         <v>0.834972677595628</v>
       </c>
-      <c r="I31">
-        <v>0.5</v>
-      </c>
-      <c r="J31">
-        <v>0.7038</v>
-      </c>
-      <c r="K31">
-        <v>0.6973</v>
-      </c>
-      <c r="L31">
-        <v>0.6951</v>
-      </c>
-      <c r="M31">
-        <v>0.6098</v>
-      </c>
-      <c r="N31">
-        <v>0.8077</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="1:14">
+      <c r="G31">
+        <v>0.8415</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="1:7">
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="7">
         <v>0.7013</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="7">
         <v>0.6942</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="7">
         <v>0.6653</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="7">
         <v>0.421</v>
       </c>
       <c r="F32" s="6">
-        <v>0.8097</v>
-      </c>
-      <c r="G32" s="4">
         <v>0.840111171031866</v>
       </c>
-      <c r="I32">
-        <v>0.75</v>
-      </c>
-      <c r="J32">
-        <v>0.7344</v>
-      </c>
-      <c r="K32">
-        <v>0.7126</v>
-      </c>
-      <c r="L32">
-        <v>0.647</v>
-      </c>
-      <c r="M32">
-        <v>0.6208</v>
-      </c>
-      <c r="N32">
-        <v>0.8317</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="1:14">
+      <c r="G32">
+        <v>0.8341</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:7">
       <c r="A33" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>0.5344</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>0.4648</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>0.5081</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <v>0.4344</v>
       </c>
-      <c r="F33" s="2">
-        <v>0.5205</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="6">
         <v>0.557509157509157</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0.7475</v>
-      </c>
-      <c r="K33">
-        <v>0.7148</v>
-      </c>
-      <c r="L33">
-        <v>0.6339</v>
-      </c>
-      <c r="M33">
-        <v>0.6251</v>
-      </c>
-      <c r="N33">
-        <v>0.8383</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="1:14">
+      <c r="G33">
+        <v>0.5828</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" spans="1:7">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="7">
         <v>0.3666</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="7">
         <v>0.374</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="7">
         <v>0.2722</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="7">
         <v>0.2594</v>
       </c>
       <c r="F34" s="6">
-        <v>0.4187</v>
-      </c>
-      <c r="G34" s="4">
         <v>0.510511189074548</v>
       </c>
-      <c r="I34">
-        <v>1.25</v>
-      </c>
-      <c r="J34">
-        <v>0.7432</v>
-      </c>
-      <c r="K34">
-        <v>0.706</v>
-      </c>
-      <c r="L34">
-        <v>0.6077</v>
-      </c>
-      <c r="M34">
-        <v>0.6404</v>
-      </c>
-      <c r="N34">
-        <v>0.8295</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="1:14">
+      <c r="G34">
+        <v>0.5506</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="1:7">
       <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="5">
-        <v>0.7528</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B35" s="7">
+        <v>0.8599</v>
+      </c>
+      <c r="C35" s="7">
         <v>0.6901</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="7">
         <v>0.4535</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="7">
         <v>0.5662</v>
       </c>
       <c r="F35" s="6">
-        <v>0.8423</v>
-      </c>
-      <c r="G35" s="4">
         <v>0.877665995975855</v>
       </c>
-      <c r="I35">
-        <v>1.5</v>
-      </c>
-      <c r="J35">
-        <v>0.7574</v>
-      </c>
-      <c r="K35">
-        <v>0.7071</v>
-      </c>
-      <c r="L35">
-        <v>0.576</v>
-      </c>
-      <c r="M35">
-        <v>0.6656</v>
-      </c>
-      <c r="N35">
-        <v>0.8262</v>
+      <c r="G35">
+        <v>0.8801</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:7">
       <c r="A36" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="5">
         <v>0.614</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>0.4297</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>0.6067</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="4">
         <v>0.0442</v>
       </c>
-      <c r="F36" s="2">
-        <v>0.3465</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="F36" s="6">
         <v>0.436686302203544</v>
       </c>
+      <c r="G36">
+        <v>0.6464</v>
+      </c>
     </row>
     <row r="37" ht="18" spans="2:14">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>1.25</v>
       </c>
-      <c r="I38">
-        <v>0.5</v>
-      </c>
-      <c r="J38">
-        <v>0.7137</v>
-      </c>
-      <c r="K38">
-        <v>0.6955</v>
-      </c>
-      <c r="L38">
-        <v>0.7213</v>
-      </c>
-      <c r="M38">
-        <v>0.4389</v>
-      </c>
-      <c r="N38">
-        <v>0.809</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2483,26 +2012,11 @@
       <c r="F39">
         <v>0.5837</v>
       </c>
-      <c r="I39">
-        <v>0.75</v>
-      </c>
-      <c r="J39">
-        <v>0.7125</v>
-      </c>
-      <c r="K39">
-        <v>0.6994</v>
-      </c>
-      <c r="L39">
-        <v>0.6978</v>
-      </c>
-      <c r="M39">
-        <v>0.4317</v>
-      </c>
-      <c r="N39">
-        <v>0.8352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="G39" s="2">
+        <v>0.826537327906766</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2521,26 +2035,11 @@
       <c r="F40">
         <v>0.8507</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0.7013</v>
-      </c>
-      <c r="K40">
-        <v>0.6942</v>
-      </c>
-      <c r="L40">
-        <v>0.6653</v>
-      </c>
-      <c r="M40">
-        <v>0.421</v>
-      </c>
-      <c r="N40">
-        <v>0.8097</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="G40" s="2">
+        <v>0.861530130734122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2559,26 +2058,11 @@
       <c r="F41">
         <v>0.5121</v>
       </c>
-      <c r="I41">
-        <v>1.25</v>
-      </c>
-      <c r="J41">
-        <v>0.695</v>
-      </c>
-      <c r="K41">
-        <v>0.7066</v>
-      </c>
-      <c r="L41">
-        <v>0.6476</v>
-      </c>
-      <c r="M41">
-        <v>0.4145</v>
-      </c>
-      <c r="N41">
-        <v>0.8303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="G41" s="2">
+        <v>0.736414363266533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2597,26 +2081,11 @@
       <c r="F42">
         <v>0.7935</v>
       </c>
-      <c r="I42">
-        <v>1.5</v>
-      </c>
-      <c r="J42">
-        <v>0.6764</v>
-      </c>
-      <c r="K42">
-        <v>0.7043</v>
-      </c>
-      <c r="L42">
-        <v>0.6192</v>
-      </c>
-      <c r="M42">
-        <v>0.4006</v>
-      </c>
-      <c r="N42">
-        <v>0.8073</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="2">
+        <v>0.799568607930977</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2634,6 +2103,9 @@
       </c>
       <c r="F43">
         <v>0.8295</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.866666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2655,26 +2127,16 @@
       <c r="F44">
         <v>0.8303</v>
       </c>
-      <c r="I44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="G44" s="2">
+        <v>0.838866024650105</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -2693,26 +2155,11 @@
       <c r="F45">
         <v>0.6571</v>
       </c>
-      <c r="I45">
-        <v>0.5</v>
-      </c>
-      <c r="J45">
-        <v>0.5095</v>
-      </c>
-      <c r="K45">
-        <v>0.4758</v>
-      </c>
-      <c r="L45">
-        <v>0.456</v>
-      </c>
-      <c r="M45">
-        <v>0.4454</v>
-      </c>
-      <c r="N45">
-        <v>0.5615</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="G45" s="2">
+        <v>0.639560439560439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2731,26 +2178,11 @@
       <c r="F46">
         <v>0.5229</v>
       </c>
-      <c r="I46">
-        <v>0.75</v>
-      </c>
-      <c r="J46">
-        <v>0.6205</v>
-      </c>
-      <c r="K46">
-        <v>0.548</v>
-      </c>
-      <c r="L46">
-        <v>0.5575</v>
-      </c>
-      <c r="M46">
-        <v>0.5176</v>
-      </c>
-      <c r="N46">
-        <v>0.6286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="G46" s="2">
+        <v>0.58910626152108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2769,26 +2201,11 @@
       <c r="F47">
         <v>0.8471</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0.5344</v>
-      </c>
-      <c r="K47">
-        <v>0.4648</v>
-      </c>
-      <c r="L47">
-        <v>0.5081</v>
-      </c>
-      <c r="M47">
-        <v>0.4344</v>
-      </c>
-      <c r="N47">
-        <v>0.5205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="G47" s="3">
+        <v>0.849496981891348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -2807,43 +2224,8 @@
       <c r="F48">
         <v>0.4573</v>
       </c>
-      <c r="I48">
-        <v>1.25</v>
-      </c>
-      <c r="J48">
-        <v>0.5978</v>
-      </c>
-      <c r="K48">
-        <v>0.4945</v>
-      </c>
-      <c r="L48">
-        <v>0.5604</v>
-      </c>
-      <c r="M48">
-        <v>0.4641</v>
-      </c>
-      <c r="N48">
-        <v>0.6571</v>
-      </c>
-    </row>
-    <row r="49" spans="9:14">
-      <c r="I49">
-        <v>1.5</v>
-      </c>
-      <c r="J49">
-        <v>0.6</v>
-      </c>
-      <c r="K49">
-        <v>0.4938</v>
-      </c>
-      <c r="L49">
-        <v>0.5297</v>
-      </c>
-      <c r="M49">
-        <v>0.4634</v>
-      </c>
-      <c r="N49">
-        <v>0.6462</v>
+      <c r="G48" s="2">
+        <v>0.6830743968675</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2885,26 +2267,16 @@
       <c r="F51">
         <v>0.5731</v>
       </c>
-      <c r="I51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="G51" s="2">
+        <v>0.829440429351912</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2923,26 +2295,11 @@
       <c r="F52">
         <v>0.8337</v>
       </c>
-      <c r="I52">
-        <v>0.5</v>
-      </c>
-      <c r="J52">
-        <v>0.3115</v>
-      </c>
-      <c r="K52">
-        <v>0.3225</v>
-      </c>
-      <c r="L52">
-        <v>0.2535</v>
-      </c>
-      <c r="M52">
-        <v>0.2466</v>
-      </c>
-      <c r="N52">
-        <v>0.3948</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="1:14">
+      <c r="G52" s="2">
+        <v>0.848740362548671</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:7">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2961,23 +2318,8 @@
       <c r="F53">
         <v>0.5174</v>
       </c>
-      <c r="I53">
-        <v>0.75</v>
-      </c>
-      <c r="J53">
-        <v>0.3281</v>
-      </c>
-      <c r="K53">
-        <v>0.3416</v>
-      </c>
-      <c r="L53">
-        <v>0.2375</v>
-      </c>
-      <c r="M53">
-        <v>0.2741</v>
-      </c>
-      <c r="N53">
-        <v>0.4716</v>
+      <c r="G53" s="2">
+        <v>0.727790946901905</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="1:14">
@@ -2999,26 +2341,16 @@
       <c r="F54">
         <v>0.7674</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0.3666</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0.374</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0.2722</v>
-      </c>
-      <c r="M54" s="5">
-        <v>0.2594</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0.4187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="G54" s="2">
+        <v>0.772822299651568</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3037,26 +2369,11 @@
       <c r="F55">
         <v>0.8262</v>
       </c>
-      <c r="I55">
-        <v>1.25</v>
-      </c>
-      <c r="J55">
-        <v>0.3046</v>
-      </c>
-      <c r="K55">
-        <v>0.3164</v>
-      </c>
-      <c r="L55">
-        <v>0.21</v>
-      </c>
-      <c r="M55">
-        <v>0.2733</v>
-      </c>
-      <c r="N55">
-        <v>0.5229</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="G55" s="2">
+        <v>0.863387978142076</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -3075,26 +2392,11 @@
       <c r="F56">
         <v>0.8073</v>
       </c>
-      <c r="I56">
-        <v>1.5</v>
-      </c>
-      <c r="J56">
-        <v>0.3225</v>
-      </c>
-      <c r="K56">
-        <v>0.3321</v>
-      </c>
-      <c r="L56">
-        <v>0.2165</v>
-      </c>
-      <c r="M56">
-        <v>0.2773</v>
-      </c>
-      <c r="N56">
-        <v>0.5546</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="2">
+        <v>0.825968133915034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -3112,6 +2414,9 @@
       </c>
       <c r="F57">
         <v>0.6462</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.643223443223443</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3133,26 +2438,16 @@
       <c r="F58">
         <v>0.5546</v>
       </c>
-      <c r="I58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="G58" s="2">
+        <v>0.621323660581555</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -3171,26 +2466,11 @@
       <c r="F59">
         <v>0.8254</v>
       </c>
-      <c r="I59">
-        <v>0.5</v>
-      </c>
-      <c r="J59">
-        <v>0.8986</v>
-      </c>
-      <c r="K59">
-        <v>0.7336</v>
-      </c>
-      <c r="L59">
-        <v>0.4584</v>
-      </c>
-      <c r="M59">
-        <v>0.5871</v>
-      </c>
-      <c r="N59">
-        <v>0.8857</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" spans="1:14">
+      <c r="G59" s="3">
+        <v>0.8317907444668</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:7">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -3209,206 +2489,35 @@
       <c r="F60">
         <v>0.4641</v>
       </c>
-      <c r="I60">
-        <v>0.75</v>
-      </c>
-      <c r="J60">
-        <v>0.901</v>
-      </c>
-      <c r="K60">
-        <v>0.7231</v>
-      </c>
-      <c r="L60">
-        <v>0.4624</v>
-      </c>
-      <c r="M60">
-        <v>0.5992</v>
-      </c>
-      <c r="N60">
-        <v>0.9058</v>
-      </c>
-    </row>
-    <row r="61" ht="16.5" spans="9:14">
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" s="5">
-        <v>0.7528</v>
-      </c>
-      <c r="K61" s="5">
-        <v>0.6901</v>
-      </c>
-      <c r="L61" s="5">
-        <v>0.4535</v>
-      </c>
-      <c r="M61" s="5">
-        <v>0.5662</v>
-      </c>
-      <c r="N61" s="6">
-        <v>0.8423</v>
-      </c>
-    </row>
-    <row r="62" spans="9:14">
-      <c r="I62">
-        <v>1.25</v>
-      </c>
-      <c r="J62">
-        <v>0.8342</v>
-      </c>
-      <c r="K62">
-        <v>0.7095</v>
-      </c>
-      <c r="L62">
-        <v>0.4712</v>
-      </c>
-      <c r="M62">
-        <v>0.5887</v>
-      </c>
-      <c r="N62">
-        <v>0.8471</v>
-      </c>
-    </row>
-    <row r="63" spans="9:14">
-      <c r="I63">
-        <v>1.5</v>
-      </c>
-      <c r="J63">
-        <v>0.8173</v>
-      </c>
-      <c r="K63">
-        <v>0.6942</v>
-      </c>
-      <c r="L63">
-        <v>0.4608</v>
-      </c>
-      <c r="M63">
-        <v>0.5992</v>
-      </c>
-      <c r="N63">
-        <v>0.8254</v>
-      </c>
-    </row>
-    <row r="65" spans="9:14">
-      <c r="I65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="9:14">
-      <c r="I66">
-        <v>0.5</v>
-      </c>
-      <c r="J66">
-        <v>0.6115</v>
-      </c>
-      <c r="K66">
-        <v>0.4195</v>
-      </c>
-      <c r="L66">
-        <v>0.6195</v>
-      </c>
-      <c r="M66">
-        <v>-0.0558</v>
-      </c>
-      <c r="N66">
-        <v>0.3915</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" spans="9:14">
-      <c r="I67">
-        <v>0.75</v>
-      </c>
-      <c r="J67">
-        <v>0.5828</v>
-      </c>
-      <c r="K67">
-        <v>0.3917</v>
-      </c>
-      <c r="L67">
-        <v>0.5865</v>
-      </c>
-      <c r="M67">
-        <v>-0.0561</v>
-      </c>
-      <c r="N67">
-        <v>0.4247</v>
-      </c>
-    </row>
-    <row r="68" ht="16.5" spans="9:14">
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68" s="3">
-        <v>0.614</v>
-      </c>
-      <c r="K68" s="2">
-        <v>0.4297</v>
-      </c>
-      <c r="L68" s="2">
-        <v>0.6067</v>
-      </c>
-      <c r="M68" s="2">
-        <v>0.0442</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0.3465</v>
-      </c>
-    </row>
-    <row r="69" spans="9:14">
-      <c r="I69">
-        <v>1.25</v>
-      </c>
-      <c r="J69">
-        <v>0.5457</v>
-      </c>
-      <c r="K69">
-        <v>0.3562</v>
-      </c>
-      <c r="L69">
-        <v>0.5428</v>
-      </c>
-      <c r="M69">
-        <v>-0.072</v>
-      </c>
-      <c r="N69">
-        <v>0.4573</v>
-      </c>
-    </row>
-    <row r="70" spans="9:14">
-      <c r="I70">
-        <v>1.5</v>
-      </c>
-      <c r="J70">
-        <v>0.5313</v>
-      </c>
-      <c r="K70">
-        <v>0.3428</v>
-      </c>
-      <c r="L70">
-        <v>0.5275</v>
-      </c>
-      <c r="M70">
-        <v>-0.0703</v>
-      </c>
-      <c r="N70">
-        <v>0.4641</v>
-      </c>
+      <c r="G60" s="2">
+        <v>0.726954080402356</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" spans="10:14">
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="65" spans="10:14">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="68" ht="16.5" spans="10:14">
+      <c r="J68" s="5"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A70" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -106,7 +106,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +117,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -672,133 +665,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -807,25 +800,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1176,8 +1169,8 @@
   <sheetPr/>
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2507,6 +2500,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
+    <row r="67" ht="14.25"/>
     <row r="68" ht="16.5" spans="10:14">
       <c r="J68" s="5"/>
       <c r="K68" s="4"/>

--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
   <si>
     <t>Key</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>rcnn</t>
+  </si>
+  <si>
+    <t>f-e</t>
+  </si>
+  <si>
+    <t>prgc</t>
   </si>
   <si>
     <t>pre</t>
@@ -106,7 +112,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +123,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -665,162 +678,163 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1167,20 +1181,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="48.9166666666667" customWidth="1"/>
-    <col min="6" max="6" width="10.375"/>
-    <col min="7" max="7" width="19.375"/>
+    <col min="6" max="8" width="10.375"/>
+    <col min="9" max="9" width="19.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,38 +1213,44 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.5051</v>
@@ -1244,16 +1264,22 @@
       <c r="E3">
         <v>0.224</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
+        <v>0.43599065719467</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.27859247000108</v>
+      </c>
+      <c r="H3">
         <v>0.5609</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="10">
         <v>0.731230695771309</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0.7053</v>
@@ -1267,16 +1293,22 @@
       <c r="E4">
         <v>0.5764</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
+        <v>0.624609989427813</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.58722054614373</v>
+      </c>
+      <c r="H4">
         <v>0.8416</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="10">
         <v>0.813155926871406</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.44</v>
@@ -1290,16 +1322,22 @@
       <c r="E5">
         <v>-0.0047</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
+        <v>0.148081715312653</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.197893578320258</v>
+      </c>
+      <c r="H5">
         <v>0.4393</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="10">
         <v>0.658628382208001</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.8037</v>
@@ -1313,16 +1351,22 @@
       <c r="E6">
         <v>0.682</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
+        <v>0.311896465903435</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.279575244732039</v>
+      </c>
+      <c r="H6">
         <v>0.8013</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="10">
         <v>0.786029533764725</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0.7038</v>
@@ -1336,16 +1380,22 @@
       <c r="E7">
         <v>0.6098</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
+        <v>0.584699453551912</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.422950819672131</v>
+      </c>
+      <c r="H7">
         <v>0.8077</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="10">
         <v>0.824043715846995</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0.7137</v>
@@ -1359,16 +1409,22 @@
       <c r="E8">
         <v>0.4389</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
+        <v>0.455700605278668</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.431125132469081</v>
+      </c>
+      <c r="H8">
         <v>0.809</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="10">
         <v>0.757482652496717</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.5095</v>
@@ -1382,21 +1438,27 @@
       <c r="E9">
         <v>0.4454</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
+        <v>0.255677655677656</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-0.0728937728937729</v>
+      </c>
+      <c r="H9">
         <v>0.5615</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="10">
         <v>0.541025641025641</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0.3115</v>
@@ -1410,16 +1472,22 @@
       <c r="E10">
         <v>0.2466</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
+        <v>0.218972864759866</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.0834036986382827</v>
+      </c>
+      <c r="H10">
         <v>0.3948</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10" s="10">
         <v>0.336445263721235</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0.8986</v>
@@ -1433,16 +1501,22 @@
       <c r="E11">
         <v>0.5871</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
+        <v>0.824547283702213</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.819718309859155</v>
+      </c>
+      <c r="H11">
         <v>0.8857</v>
       </c>
-      <c r="G11" s="3">
+      <c r="I11" s="11">
         <v>0.885714285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>0.6115</v>
@@ -1456,36 +1530,42 @@
       <c r="E12">
         <v>-0.0558</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
+        <v>-0.0251438216955458</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.0485365209503141</v>
+      </c>
+      <c r="H12">
         <v>0.3915</v>
       </c>
-      <c r="G12" s="2">
+      <c r="I12" s="10">
         <v>0.592017178224075</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>0.4935</v>
@@ -1499,16 +1579,22 @@
       <c r="E15">
         <v>0.2218</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
+        <v>0.458190864037056</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.301912039844462</v>
+      </c>
+      <c r="H15">
         <v>0.582</v>
       </c>
-      <c r="G15" s="2">
+      <c r="I15" s="10">
         <v>0.761582824609728</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>0.6561</v>
@@ -1522,21 +1608,27 @@
       <c r="E16">
         <v>0.6083</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
+        <v>0.659317707124623</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.629664010726902</v>
+      </c>
+      <c r="H16">
         <v>0.8736</v>
       </c>
-      <c r="G16" s="2">
+      <c r="I16" s="10">
         <v>0.86333513834094</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>0.4385</v>
@@ -1550,16 +1642,22 @@
       <c r="E17">
         <v>0.0035</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
+        <v>0.164719617314958</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.215993977701701</v>
+      </c>
+      <c r="H17">
         <v>0.4712</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="10">
         <v>0.698914866830972</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>0.7563</v>
@@ -1573,16 +1671,22 @@
       <c r="E18">
         <v>0.6968</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
+        <v>0.347934295669487</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.315613074498092</v>
+      </c>
+      <c r="H18">
         <v>0.8253</v>
       </c>
-      <c r="G18" s="2">
+      <c r="I18" s="10">
         <v>0.852994856479177</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>0.7344</v>
@@ -1596,16 +1700,22 @@
       <c r="E19">
         <v>0.6208</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
+        <v>0.626229508196721</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.497267759562842</v>
+      </c>
+      <c r="H19">
         <v>0.8317</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="10">
         <v>0.876502732240437</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>0.7125</v>
@@ -1619,16 +1729,22 @@
       <c r="E20">
         <v>0.4317</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
+        <v>0.456748354019332</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.450061256993204</v>
+      </c>
+      <c r="H20">
         <v>0.8352</v>
       </c>
-      <c r="G20" s="2">
+      <c r="I20" s="10">
         <v>0.806423099910623</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>0.6205</v>
@@ -1642,16 +1758,22 @@
       <c r="E21">
         <v>0.5176</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
+        <v>0.245054945054945</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.0476190476190476</v>
+      </c>
+      <c r="H21">
         <v>0.6286</v>
       </c>
-      <c r="G21" s="2">
+      <c r="I21" s="10">
         <v>0.661538461538461</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>0.3281</v>
@@ -1665,16 +1787,22 @@
       <c r="E22">
         <v>0.2741</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
+        <v>0.248387544349963</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.151001962300053</v>
+      </c>
+      <c r="H22">
         <v>0.4716</v>
       </c>
-      <c r="G22" s="2">
+      <c r="I22" s="10">
         <v>0.444637370914353</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>0.901</v>
@@ -1688,21 +1816,27 @@
       <c r="E23">
         <v>0.5992</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
+        <v>0.857545271629779</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.839839034205231</v>
+      </c>
+      <c r="H23">
         <v>0.9058</v>
       </c>
-      <c r="G23" s="2">
+      <c r="I23" s="10">
         <v>0.9082</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>0.5828</v>
@@ -1716,279 +1850,347 @@
       <c r="E24">
         <v>-0.0561</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
+        <v>0.0126494195459713</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.0938417903935145</v>
+      </c>
+      <c r="H24">
         <v>0.4247</v>
       </c>
-      <c r="G24" s="2">
+      <c r="I24" s="10">
         <v>0.626324824600687</v>
       </c>
     </row>
     <row r="25" ht="14.25"/>
-    <row r="26" ht="16.5" spans="1:14">
+    <row r="26" ht="16.5" spans="1:16">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:7">
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:9">
       <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3">
         <v>0.509</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>0.552</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>0.5703</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>0.2147</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="2">
+        <v>0.482149190099976</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.326482435435656</v>
+      </c>
+      <c r="H27" s="5">
         <v>0.586049675838814</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.8091</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="1:7">
+    <row r="28" ht="15.75" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3">
         <v>0.6245</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>0.6366</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>0.4896</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>0.6201</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="2">
+        <v>0.683711095639617</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.657564271163714</v>
+      </c>
+      <c r="H28" s="5">
         <v>0.864779144426394</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.867</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" ht="16.5" spans="1:9">
       <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="7">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6">
         <v>0.4403</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>0.4359</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>0.512</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>0.0307</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="2">
+        <v>0.176027115233226</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.230082347909247</v>
+      </c>
+      <c r="H29" s="5">
         <v>0.494369185658857</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.7206</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="1:14">
+    <row r="30" ht="15.75" spans="1:16">
       <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="7">
+        <v>14</v>
+      </c>
+      <c r="B30" s="6">
         <v>0.7066</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>0.6664</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>0.4882</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>0.6865</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="2">
+        <v>0.374879707980753</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.340700182512029</v>
+      </c>
+      <c r="H30" s="5">
         <v>0.81423593827775</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>0.819</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" ht="15.75" spans="1:7">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" ht="15.75" spans="1:9">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="4">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3">
         <v>0.7475</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>0.7148</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>0.6339</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>0.6251</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="2">
+        <v>0.651366120218579</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.537704918032787</v>
+      </c>
+      <c r="H31" s="5">
         <v>0.834972677595628</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.8415</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="1:7">
+    <row r="32" ht="15.75" spans="1:9">
       <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="7">
+        <v>16</v>
+      </c>
+      <c r="B32" s="6">
         <v>0.7013</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>0.6942</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>0.6653</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>0.421</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="2">
+        <v>0.452858612753992</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.463889762012839</v>
+      </c>
+      <c r="H32" s="5">
         <v>0.840111171031866</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.8341</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:7">
+    <row r="33" ht="16.5" spans="1:9">
       <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="5">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4">
         <v>0.5344</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>0.4648</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>0.5081</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>0.4344</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="2">
+        <v>0.138827838827839</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-0.0564102564102564</v>
+      </c>
+      <c r="H33" s="5">
         <v>0.557509157509157</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.5828</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="1:7">
+    <row r="34" ht="15.75" spans="1:9">
       <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="7">
+        <v>18</v>
+      </c>
+      <c r="B34" s="6">
         <v>0.3666</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>0.374</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>0.2722</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>0.2594</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="2">
+        <v>0.292049711601356</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.191445164615171</v>
+      </c>
+      <c r="H34" s="5">
         <v>0.510511189074548</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.5506</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="1:7">
+    <row r="35" ht="15.75" spans="1:9">
       <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="7">
+        <v>19</v>
+      </c>
+      <c r="B35" s="6">
         <v>0.8599</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>0.6901</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>0.4535</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>0.5662</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="2">
+        <v>0.8261569416499</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.810060362173038</v>
+      </c>
+      <c r="H35" s="5">
         <v>0.877665995975855</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>0.8801</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:7">
+    <row r="36" ht="16.5" spans="1:9">
       <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="5">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4">
         <v>0.614</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>0.4297</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>0.6067</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>0.0442</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="2">
+        <v>0.027109097798753</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.115396672293224</v>
+      </c>
+      <c r="H36" s="5">
         <v>0.436686302203544</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>0.6464</v>
       </c>
     </row>
-    <row r="37" ht="18" spans="2:14">
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+    <row r="37" ht="18" spans="2:16">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <v>1.25</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0.4846</v>
@@ -2002,16 +2204,22 @@
       <c r="E39">
         <v>0.2061</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
+        <v>0.505455375541278</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.353187766328047</v>
+      </c>
+      <c r="H39">
         <v>0.5837</v>
       </c>
-      <c r="G39" s="2">
+      <c r="I39" s="10">
         <v>0.826537327906766</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0.6111</v>
@@ -2025,16 +2233,22 @@
       <c r="E40">
         <v>0.6309</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
+        <v>0.698099584848251</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.674221912792347</v>
+      </c>
+      <c r="H40">
         <v>0.8507</v>
       </c>
-      <c r="G40" s="2">
+      <c r="I40" s="10">
         <v>0.861530130734122</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0.4306</v>
@@ -2048,16 +2262,22 @@
       <c r="E41">
         <v>0.0153</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
+        <v>0.182597451186158</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.238024772312425</v>
+      </c>
+      <c r="H41">
         <v>0.5121</v>
       </c>
-      <c r="G41" s="2">
+      <c r="I41" s="10">
         <v>0.736414363266533</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0.6608</v>
@@ -2071,16 +2291,22 @@
       <c r="E42">
         <v>0.6743</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
+        <v>0.393396382943421</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.358818649410984</v>
+      </c>
+      <c r="H42">
         <v>0.7935</v>
       </c>
-      <c r="G42" s="2">
+      <c r="I42" s="10">
         <v>0.799568607930977</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0.7432</v>
@@ -2094,16 +2320,22 @@
       <c r="E43">
         <v>0.6404</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
+        <v>0.672131147540984</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.556284153005465</v>
+      </c>
+      <c r="H43">
         <v>0.8295</v>
       </c>
-      <c r="G43" s="2">
+      <c r="I43" s="10">
         <v>0.866666666666667</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0.695</v>
@@ -2117,21 +2349,27 @@
       <c r="E44">
         <v>0.4145</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
+        <v>0.444554751985128</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.471266150261396</v>
+      </c>
+      <c r="H44">
         <v>0.8303</v>
       </c>
-      <c r="G44" s="2">
+      <c r="I44" s="10">
         <v>0.838866024650105</v>
       </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0.5978</v>
@@ -2145,16 +2383,22 @@
       <c r="E45">
         <v>0.4641</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
+        <v>0.167399267399267</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.0256410256410256</v>
+      </c>
+      <c r="H45">
         <v>0.6571</v>
       </c>
-      <c r="G45" s="2">
+      <c r="I45" s="10">
         <v>0.639560439560439</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0.3046</v>
@@ -2168,16 +2412,22 @@
       <c r="E46">
         <v>0.2733</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
+        <v>0.297710649937563</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.201839408535014</v>
+      </c>
+      <c r="H46">
         <v>0.5229</v>
       </c>
-      <c r="G46" s="2">
+      <c r="I46" s="10">
         <v>0.58910626152108</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>0.8342</v>
@@ -2191,16 +2441,22 @@
       <c r="E47">
         <v>0.5887</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
+        <v>0.797183098591549</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.78430583501006</v>
+      </c>
+      <c r="H47">
         <v>0.8471</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="11">
         <v>0.849496981891348</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B48">
         <v>0.5457</v>
@@ -2214,36 +2470,42 @@
       <c r="E48">
         <v>-0.072</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
+        <v>0.0500872690527863</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.141329360294878</v>
+      </c>
+      <c r="H48">
         <v>0.4573</v>
       </c>
-      <c r="G48" s="2">
+      <c r="I48" s="10">
         <v>0.6830743968675</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>0.4763</v>
@@ -2257,21 +2519,27 @@
       <c r="E51">
         <v>0.1992</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
+        <v>0.526801690376081</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.373207957889222</v>
+      </c>
+      <c r="H51">
         <v>0.5731</v>
       </c>
-      <c r="G51" s="2">
+      <c r="I51" s="10">
         <v>0.829440429351912</v>
       </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>0.5876</v>
@@ -2285,16 +2553,22 @@
       <c r="E52">
         <v>0.642</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
+        <v>0.715737087749156</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.692993991903252</v>
+      </c>
+      <c r="H52">
         <v>0.8337</v>
       </c>
-      <c r="G52" s="2">
+      <c r="I52" s="10">
         <v>0.848740362548671</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:7">
+    <row r="53" ht="14.25" spans="1:9">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>0.4301</v>
@@ -2308,16 +2582,22 @@
       <c r="E53">
         <v>0.0185</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
+        <v>0.186151851634693</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.242948070307833</v>
+      </c>
+      <c r="H53">
         <v>0.5174</v>
       </c>
-      <c r="G53" s="2">
+      <c r="I53" s="10">
         <v>0.727790946901905</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:14">
+    <row r="54" ht="16.5" spans="1:16">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>0.6242</v>
@@ -2331,21 +2611,27 @@
       <c r="E54">
         <v>0.6603</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
+        <v>0.417753442840551</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.3827775012444</v>
+      </c>
+      <c r="H54">
         <v>0.7674</v>
       </c>
-      <c r="G54" s="2">
+      <c r="I54" s="10">
         <v>0.772822299651568</v>
       </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="8"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="7"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B55">
         <v>0.7574</v>
@@ -2359,16 +2645,22 @@
       <c r="E55">
         <v>0.6656</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
+        <v>0.684153005464481</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.563934426229508</v>
+      </c>
+      <c r="H55">
         <v>0.8262</v>
       </c>
-      <c r="G55" s="2">
+      <c r="I55" s="10">
         <v>0.863387978142076</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B56">
         <v>0.6764</v>
@@ -2382,16 +2674,22 @@
       <c r="E56">
         <v>0.4006</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
+        <v>0.435909209533595</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.476655876484799</v>
+      </c>
+      <c r="H56">
         <v>0.8073</v>
       </c>
-      <c r="G56" s="2">
+      <c r="I56" s="10">
         <v>0.825968133915034</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B57">
         <v>0.6</v>
@@ -2405,16 +2703,22 @@
       <c r="E57">
         <v>0.4634</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
+        <v>0.16007326007326</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.0293040293040293</v>
+      </c>
+      <c r="H57">
         <v>0.6462</v>
       </c>
-      <c r="G57" s="2">
+      <c r="I57" s="10">
         <v>0.643223443223443</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <v>0.3225</v>
@@ -2428,21 +2732,27 @@
       <c r="E58">
         <v>0.2773</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
+        <v>0.317317793502607</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.237002239797031</v>
+      </c>
+      <c r="H58">
         <v>0.5546</v>
       </c>
-      <c r="G58" s="2">
+      <c r="I58" s="10">
         <v>0.621323660581555</v>
       </c>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>0.8173</v>
@@ -2456,16 +2766,22 @@
       <c r="E59">
         <v>0.5992</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
+        <v>0.791549295774648</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.780281690140845</v>
+      </c>
+      <c r="H59">
         <v>0.8254</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="11">
         <v>0.8317907444668</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:7">
+    <row r="60" ht="14.25" spans="1:9">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B60">
         <v>0.5313</v>
@@ -2479,34 +2795,39 @@
       <c r="E60">
         <v>-0.0703</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
+        <v>0.05585793516828</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.149892636099533</v>
+      </c>
+      <c r="H60">
         <v>0.4641</v>
       </c>
-      <c r="G60" s="2">
+      <c r="I60" s="10">
         <v>0.726954080402356</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="10:14">
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="8"/>
-    </row>
-    <row r="65" spans="10:14">
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+    <row r="61" ht="16.5" spans="12:16">
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="7"/>
+    </row>
+    <row r="65" spans="12:16">
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-    </row>
-    <row r="67" ht="14.25"/>
-    <row r="68" ht="16.5" spans="10:14">
-      <c r="J68" s="5"/>
-      <c r="K68" s="4"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="68" ht="16.5" spans="12:16">
       <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A70" etc:filterBottomFollowUsedRange="0">

--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>Key</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2829,6 +2832,11 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
+    <row r="87" spans="5:5">
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A70" etc:filterBottomFollowUsedRange="0">
     <extLst/>

--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -115,7 +115,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +126,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -681,162 +674,161 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1183,11 +1175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1226,7 +1218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" hidden="1" spans="1:16">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1243,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" hidden="1" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1276,11 +1268,11 @@
       <c r="H3">
         <v>0.5609</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="2">
         <v>0.731230695771309</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" hidden="1" spans="1:9">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1305,7 +1297,7 @@
       <c r="H4">
         <v>0.8416</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="2">
         <v>0.813155926871406</v>
       </c>
     </row>
@@ -1334,11 +1326,11 @@
       <c r="H5">
         <v>0.4393</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="2">
         <v>0.658628382208001</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" hidden="1" spans="1:9">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1363,11 +1355,11 @@
       <c r="H6">
         <v>0.8013</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="2">
         <v>0.786029533764725</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" hidden="1" spans="1:9">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1392,11 +1384,11 @@
       <c r="H7">
         <v>0.8077</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="2">
         <v>0.824043715846995</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" hidden="1" spans="1:9">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1421,11 +1413,11 @@
       <c r="H8">
         <v>0.809</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="2">
         <v>0.757482652496717</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" hidden="1" spans="1:16">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1450,7 +1442,7 @@
       <c r="H9">
         <v>0.5615</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="2">
         <v>0.541025641025641</v>
       </c>
       <c r="L9" s="1"/>
@@ -1459,7 +1451,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" hidden="1" spans="1:9">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1484,11 +1476,11 @@
       <c r="H10">
         <v>0.3948</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="2">
         <v>0.336445263721235</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" hidden="1" spans="1:9">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1513,11 +1505,11 @@
       <c r="H11">
         <v>0.8857</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>0.885714285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" hidden="1" spans="1:9">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1542,11 +1534,12 @@
       <c r="H12">
         <v>0.3915</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="2">
         <v>0.592017178224075</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="13" hidden="1"/>
+    <row r="14" hidden="1" spans="1:8">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1566,7 +1559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" hidden="1" spans="1:9">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1591,11 +1584,11 @@
       <c r="H15">
         <v>0.582</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="2">
         <v>0.761582824609728</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" hidden="1" spans="1:16">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1620,7 +1613,7 @@
       <c r="H16">
         <v>0.8736</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="2">
         <v>0.86333513834094</v>
       </c>
       <c r="L16" s="1"/>
@@ -1654,11 +1647,11 @@
       <c r="H17">
         <v>0.4712</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="2">
         <v>0.698914866830972</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" hidden="1" spans="1:9">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1683,11 +1676,11 @@
       <c r="H18">
         <v>0.8253</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="2">
         <v>0.852994856479177</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" hidden="1" spans="1:9">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1712,11 +1705,11 @@
       <c r="H19">
         <v>0.8317</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="2">
         <v>0.876502732240437</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" hidden="1" spans="1:9">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1741,11 +1734,11 @@
       <c r="H20">
         <v>0.8352</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="2">
         <v>0.806423099910623</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" hidden="1" spans="1:9">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1770,11 +1763,11 @@
       <c r="H21">
         <v>0.6286</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="2">
         <v>0.661538461538461</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" hidden="1" spans="1:9">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1799,11 +1792,11 @@
       <c r="H22">
         <v>0.4716</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="2">
         <v>0.444637370914353</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" hidden="1" spans="1:16">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1821,7 @@
       <c r="H23">
         <v>0.9058</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="2">
         <v>0.9082</v>
       </c>
       <c r="L23" s="1"/>
@@ -1837,7 +1830,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" hidden="1" spans="1:9">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1862,12 +1855,12 @@
       <c r="H24">
         <v>0.4247</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="2">
         <v>0.626324824600687</v>
       </c>
     </row>
-    <row r="25" ht="14.25"/>
-    <row r="26" ht="16.5" spans="1:16">
+    <row r="25" ht="14.25" hidden="1"/>
+    <row r="26" ht="16.5" hidden="1" spans="1:16">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1877,7 +1870,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" ht="16.5" hidden="1" spans="1:9">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1906,7 +1899,7 @@
         <v>0.8091</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="1:9">
+    <row r="28" ht="15.75" hidden="1" spans="1:9">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1935,7 +1928,7 @@
         <v>0.867</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" ht="15.75" spans="1:9">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1964,7 +1957,7 @@
         <v>0.7206</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="1:16">
+    <row r="30" ht="15.75" hidden="1" spans="1:16">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1998,7 +1991,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" ht="15.75" spans="1:9">
+    <row r="31" ht="15.75" hidden="1" spans="1:9">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2027,7 +2020,7 @@
         <v>0.8415</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="1:9">
+    <row r="32" ht="15.75" hidden="1" spans="1:9">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2056,7 +2049,7 @@
         <v>0.8341</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" ht="16.5" hidden="1" spans="1:9">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2085,7 +2078,7 @@
         <v>0.5828</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="1:9">
+    <row r="34" ht="15.75" hidden="1" spans="1:9">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2114,7 +2107,7 @@
         <v>0.5506</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="1:9">
+    <row r="35" ht="15.75" hidden="1" spans="1:9">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2143,7 +2136,7 @@
         <v>0.8801</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" ht="16.5" hidden="1" spans="1:9">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2172,7 +2165,7 @@
         <v>0.6464</v>
       </c>
     </row>
-    <row r="37" ht="18" spans="2:16">
+    <row r="37" ht="18" hidden="1" spans="2:16">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2186,12 +2179,12 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" hidden="1" spans="1:1">
       <c r="A38">
         <v>1.25</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" hidden="1" spans="1:9">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2216,11 +2209,11 @@
       <c r="H39">
         <v>0.5837</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="2">
         <v>0.826537327906766</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" hidden="1" spans="1:9">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2245,7 +2238,7 @@
       <c r="H40">
         <v>0.8507</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="2">
         <v>0.861530130734122</v>
       </c>
     </row>
@@ -2274,11 +2267,11 @@
       <c r="H41">
         <v>0.5121</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="2">
         <v>0.736414363266533</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" hidden="1" spans="1:9">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2303,11 +2296,11 @@
       <c r="H42">
         <v>0.7935</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="2">
         <v>0.799568607930977</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" hidden="1" spans="1:9">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2332,11 +2325,11 @@
       <c r="H43">
         <v>0.8295</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="2">
         <v>0.866666666666667</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" hidden="1" spans="1:16">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2361,7 +2354,7 @@
       <c r="H44">
         <v>0.8303</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="2">
         <v>0.838866024650105</v>
       </c>
       <c r="L44" s="1"/>
@@ -2370,7 +2363,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" hidden="1" spans="1:9">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2395,11 +2388,11 @@
       <c r="H45">
         <v>0.6571</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="2">
         <v>0.639560439560439</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" hidden="1" spans="1:9">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2424,11 +2417,11 @@
       <c r="H46">
         <v>0.5229</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="2">
         <v>0.58910626152108</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" hidden="1" spans="1:9">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2453,11 +2446,11 @@
       <c r="H47">
         <v>0.8471</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="10">
         <v>0.849496981891348</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" hidden="1" spans="1:9">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -2482,11 +2475,12 @@
       <c r="H48">
         <v>0.4573</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="2">
         <v>0.6830743968675</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="49" hidden="1"/>
+    <row r="50" hidden="1" spans="1:8">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2506,7 +2500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" hidden="1" spans="1:16">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2531,7 +2525,7 @@
       <c r="H51">
         <v>0.5731</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="2">
         <v>0.829440429351912</v>
       </c>
       <c r="L51" s="1"/>
@@ -2540,7 +2534,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" hidden="1" spans="1:9">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2565,11 +2559,11 @@
       <c r="H52">
         <v>0.8337</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="2">
         <v>0.848740362548671</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:9">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2594,11 +2588,11 @@
       <c r="H53">
         <v>0.5174</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="2">
         <v>0.727790946901905</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:16">
+    <row r="54" ht="16.5" hidden="1" spans="1:16">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2623,7 +2617,7 @@
       <c r="H54">
         <v>0.7674</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="2">
         <v>0.772822299651568</v>
       </c>
       <c r="L54" s="6"/>
@@ -2632,7 +2626,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="7"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" hidden="1" spans="1:9">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2657,11 +2651,11 @@
       <c r="H55">
         <v>0.8262</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="2">
         <v>0.863387978142076</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" hidden="1" spans="1:9">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2686,11 +2680,11 @@
       <c r="H56">
         <v>0.8073</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="2">
         <v>0.825968133915034</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" hidden="1" spans="1:9">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2715,11 +2709,11 @@
       <c r="H57">
         <v>0.6462</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="2">
         <v>0.643223443223443</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" hidden="1" spans="1:16">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2744,7 +2738,7 @@
       <c r="H58">
         <v>0.5546</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="2">
         <v>0.621323660581555</v>
       </c>
       <c r="L58" s="1"/>
@@ -2753,7 +2747,7 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" hidden="1" spans="1:9">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2778,11 +2772,11 @@
       <c r="H59">
         <v>0.8254</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="10">
         <v>0.8317907444668</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:9">
+    <row r="60" ht="14.25" hidden="1" spans="1:9">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2807,31 +2801,38 @@
       <c r="H60">
         <v>0.4641</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="2">
         <v>0.726954080402356</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="12:16">
+    <row r="61" ht="16.5" hidden="1" spans="12:16">
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="7"/>
     </row>
-    <row r="65" spans="12:16">
+    <row r="62" hidden="1"/>
+    <row r="63" hidden="1"/>
+    <row r="64" hidden="1"/>
+    <row r="65" hidden="1" spans="12:16">
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="68" ht="16.5" spans="12:16">
+    <row r="66" hidden="1"/>
+    <row r="67" ht="14.25" hidden="1"/>
+    <row r="68" ht="16.5" hidden="1" spans="12:16">
       <c r="L68" s="4"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
+    <row r="69" hidden="1"/>
+    <row r="70" hidden="1"/>
     <row r="87" spans="5:5">
       <c r="E87" t="s">
         <v>23</v>
@@ -2839,6 +2840,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A70" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="celegans_genetic_multiplex.edges"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1301,7 +1301,7 @@
         <v>0.813155926871406</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" hidden="1" spans="1:9">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0.885714285714285</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:9">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" hidden="1" spans="1:9">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" hidden="1" spans="1:9">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0.867</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="1:9">
+    <row r="29" ht="16.5" hidden="1" spans="1:9">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>0.8801</v>
       </c>
     </row>
-    <row r="36" ht="16.5" hidden="1" spans="1:9">
+    <row r="36" ht="15.75" spans="1:9">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0.861530130734122</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" hidden="1" spans="1:9">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0.849496981891348</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:9">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0.848740362548671</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" ht="14.25" hidden="1" spans="1:9">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>0.8317907444668</v>
       </c>
     </row>
-    <row r="60" ht="14.25" hidden="1" spans="1:9">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2842,7 +2842,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A70" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="0">
       <filters>
-        <filter val="celegans_genetic_multiplex.edges"/>
+        <filter val="rattus_genetic_multiplex.edges"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/ken_[0.5, 0.75, 1.25, 1.5].xlsx
+++ b/ken_[0.5, 0.75, 1.25, 1.5].xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -891,6 +891,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1175,11 +1182,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1218,7 +1225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:16">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1250,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" hidden="1" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1279,7 @@
         <v>0.731230695771309</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1301,7 +1308,7 @@
         <v>0.813155926871406</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1337,7 @@
         <v>0.658628382208001</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:9">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1359,7 +1366,7 @@
         <v>0.786029533764725</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:9">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1395,7 @@
         <v>0.824043715846995</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:9">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1424,7 @@
         <v>0.757482652496717</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:16">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +1458,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" hidden="1" spans="1:9">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1487,7 @@
         <v>0.336445263721235</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:9">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1538,8 +1545,7 @@
         <v>0.592017178224075</v>
       </c>
     </row>
-    <row r="13" hidden="1"/>
-    <row r="14" hidden="1" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:9">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>0.761582824609728</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:16">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +1628,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" hidden="1" spans="1:9">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>0.698914866830972</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:9">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>0.852994856479177</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:9">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>0.876502732240437</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:9">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>0.806423099910623</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:9">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>0.661538461538461</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:9">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1796,7 +1802,7 @@
         <v>0.444637370914353</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:16">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1859,8 +1865,8 @@
         <v>0.626324824600687</v>
       </c>
     </row>
-    <row r="25" ht="14.25" hidden="1"/>
-    <row r="26" ht="16.5" hidden="1" spans="1:16">
+    <row r="25" ht="14.25"/>
+    <row r="26" ht="16.5" spans="1:16">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1870,7 +1876,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" ht="16.5" hidden="1" spans="1:9">
+    <row r="27" ht="16.5" spans="1:9">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>0.8091</v>
       </c>
     </row>
-    <row r="28" ht="15.75" hidden="1" spans="1:9">
+    <row r="28" ht="15.75" spans="1:9">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>0.867</v>
       </c>
     </row>
-    <row r="29" ht="16.5" hidden="1" spans="1:9">
+    <row r="29" ht="16.5" spans="1:9">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>0.7206</v>
       </c>
     </row>
-    <row r="30" ht="15.75" hidden="1" spans="1:16">
+    <row r="30" ht="15.75" spans="1:16">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1991,7 +1997,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" ht="15.75" hidden="1" spans="1:9">
+    <row r="31" ht="15.75" spans="1:9">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>0.8415</v>
       </c>
     </row>
-    <row r="32" ht="15.75" hidden="1" spans="1:9">
+    <row r="32" ht="15.75" spans="1:9">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>0.8341</v>
       </c>
     </row>
-    <row r="33" ht="16.5" hidden="1" spans="1:9">
+    <row r="33" ht="16.5" spans="1:9">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>0.5828</v>
       </c>
     </row>
-    <row r="34" ht="15.75" hidden="1" spans="1:9">
+    <row r="34" ht="15.75" spans="1:9">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>0.5506</v>
       </c>
     </row>
-    <row r="35" ht="15.75" hidden="1" spans="1:9">
+    <row r="35" ht="15.75" spans="1:9">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>0.8801</v>
       </c>
     </row>
-    <row r="36" ht="15.75" spans="1:9">
+    <row r="36" ht="16.5" spans="1:9">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>0.6464</v>
       </c>
     </row>
-    <row r="37" ht="18" hidden="1" spans="2:16">
+    <row r="37" ht="18" spans="2:16">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2179,12 +2185,12 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" hidden="1" spans="1:1">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>1.25</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:9">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>0.826537327906766</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:9">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>0.861530130734122</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:9">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>0.736414363266533</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:9">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>0.799568607930977</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:9">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>0.866666666666667</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:16">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2363,7 +2369,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" hidden="1" spans="1:9">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>0.639560439560439</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:9">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>0.58910626152108</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:9">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2479,8 +2485,7 @@
         <v>0.6830743968675</v>
       </c>
     </row>
-    <row r="49" hidden="1"/>
-    <row r="50" hidden="1" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2500,7 +2505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:16">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2534,7 +2539,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" hidden="1" spans="1:9">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2563,7 +2568,7 @@
         <v>0.848740362548671</v>
       </c>
     </row>
-    <row r="53" ht="14.25" hidden="1" spans="1:9">
+    <row r="53" ht="14.25" spans="1:9">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2597,7 @@
         <v>0.727790946901905</v>
       </c>
     </row>
-    <row r="54" ht="16.5" hidden="1" spans="1:16">
+    <row r="54" ht="16.5" spans="1:16">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2626,7 +2631,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="7"/>
     </row>
-    <row r="55" hidden="1" spans="1:9">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2655,7 +2660,7 @@
         <v>0.863387978142076</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:9">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2684,7 +2689,7 @@
         <v>0.825968133915034</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:9">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2713,7 +2718,7 @@
         <v>0.643223443223443</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:16">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2747,7 +2752,7 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" hidden="1" spans="1:9">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2776,7 +2781,7 @@
         <v>0.8317907444668</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" ht="14.25" spans="1:9">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2805,34 +2810,28 @@
         <v>0.726954080402356</v>
       </c>
     </row>
-    <row r="61" ht="16.5" hidden="1" spans="12:16">
+    <row r="61" ht="16.5" spans="12:16">
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="7"/>
     </row>
-    <row r="62" hidden="1"/>
-    <row r="63" hidden="1"/>
-    <row r="64" hidden="1"/>
-    <row r="65" hidden="1" spans="12:16">
+    <row r="65" spans="12:16">
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" hidden="1"/>
-    <row r="67" ht="14.25" hidden="1"/>
-    <row r="68" ht="16.5" hidden="1" spans="12:16">
+    <row r="67" ht="14.25"/>
+    <row r="68" ht="16.5" spans="12:16">
       <c r="L68" s="4"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" hidden="1"/>
-    <row r="70" hidden="1"/>
     <row r="87" spans="5:5">
       <c r="E87" t="s">
         <v>23</v>
@@ -2840,11 +2839,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A70" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="rattus_genetic_multiplex.edges"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
